--- a/bot_LUI_БД.xlsx
+++ b/bot_LUI_БД.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -57,10 +57,7 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>dsajhxa</t>
+    <t>id_tg</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -429,7 +426,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -457,13 +454,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,19 +470,59 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1446418763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1446418763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1446418763</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +532,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,18 +540,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bot_LUI_БД.xlsx
+++ b/bot_LUI_БД.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\python by\tg-bot_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="1" r:id="rId1"/>
     <sheet name="Карты" sheetId="2" r:id="rId2"/>
     <sheet name="Вопросы" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -39,16 +44,7 @@
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Gorilla_Glass_YAA</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>Yudov</t>
+    <t>Название</t>
   </si>
   <si>
     <t>Приватность(Приватная - True, общая - False)</t>
@@ -64,16 +60,45 @@
   </si>
   <si>
     <t>Ответ</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/?um=constructor%3Aa9f43280096f57bd479c4e01eb430be6518f986422667478e72108de1c3f5bb3&amp;source=constructorLink</t>
+  </si>
+  <si>
+    <t>Районы Нижнего Новгорода</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Маршруты в МЕГУ</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/?um=constructor%3Afcb64cf5b84fe628cfff1029d4104eb704ca2414d60dae661d625de899ced414&amp;source=constructorLink</t>
+  </si>
+  <si>
+    <t>Альтернативные маршруты в МЕГУ</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/?um=constructor%3A9cc591e4fc2c3f57ded6dfdadf95af706481807103e26a1ebddf2227e676971f&amp;source=constructorLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,24 +121,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,9 +187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +256,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,14 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,29 +462,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1446418763</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -453,129 +470,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1446418763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1446418763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1446418763</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1446418763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1446418763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1446418763</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
